--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">The executioners are hereditary experts in execution, appointed by the king through generations. They are well-versed in weapons, the human body, and the knowledge of iron balls to carry out executions smoothly. They embrace death and can harness their full power when standing on the brink of death.</t>
   </si>
   <si>
-    <t xml:space="preserve">処刑人は国王により代々世襲される処刑の専門家です。彼らは滞りなく死刑を執行するために、武器と人体、そして鉄球の知識に精通しています。彼らは死を抱擁し、死の淵に立つほど自らの力を引き出すことができます。</t>
+    <t xml:space="preserve">処刑人は国王の命により代々世襲される処刑の専門家です。彼らは滞りなく死刑を執行するために、武器と人体、そして鉄球の知識に精通しています。彼らは死を抱擁し、死の淵に立つほど自らの力を引き出すことができます。</t>
   </si>
   <si>
     <t xml:space="preserve">swordsage</t>
@@ -821,7 +821,7 @@
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Mod_Korean/Lang/KR/Game/Job.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>
